--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Monthly_Financial_Summary_Sept.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Monthly_Financial_Summary_Sept.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="September 2024" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="September 2024" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +518,374 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36254</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8018</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>49621</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18769</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34741</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4823</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43311</v>
+      </c>
+      <c r="D8" t="n">
+        <v>42488</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>29121</v>
+      </c>
+      <c r="C9" t="n">
+        <v>47666</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13692</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>46904</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12675</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10656</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>18960</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38602</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24658</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>37057</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26746</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15734</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5101</v>
+      </c>
+      <c r="C13" t="n">
+        <v>42270</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20701</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27653</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3610</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7776</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21079</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24644</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>46895</v>
+      </c>
+      <c r="C16" t="n">
+        <v>40794</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24328</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9950</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40163</v>
+      </c>
+      <c r="D17" t="n">
+        <v>42294</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>28355</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2142</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28415</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>38855</v>
+      </c>
+      <c r="C19" t="n">
+        <v>37731</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17209</v>
+      </c>
+      <c r="C20" t="n">
+        <v>38485</v>
+      </c>
+      <c r="D20" t="n">
+        <v>35155</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12676</v>
+      </c>
+      <c r="C21" t="n">
+        <v>22300</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41434</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>40719</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28441</v>
+      </c>
+      <c r="D22" t="n">
+        <v>23479</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>39416</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17077</v>
+      </c>
+      <c r="D23" t="n">
+        <v>39786</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8133</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7330</v>
+      </c>
+      <c r="D24" t="n">
+        <v>39986</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>29654</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2762</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9623</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>48188</v>
+      </c>
+      <c r="C26" t="n">
+        <v>23218</v>
+      </c>
+      <c r="D26" t="n">
+        <v>47231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>39603</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33529</v>
+      </c>
+      <c r="D27" t="n">
+        <v>27768</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>32036</v>
+      </c>
+      <c r="C28" t="n">
+        <v>45450</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Monthly_Financial_Summary_Sept.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Monthly_Financial_Summary_Sept.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,6 +886,502 @@
         <v>10025</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>13731</v>
+      </c>
+      <c r="C29" t="n">
+        <v>33339</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14761</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>48091</v>
+      </c>
+      <c r="C30" t="n">
+        <v>20953</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21079</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>38787</v>
+      </c>
+      <c r="C31" t="n">
+        <v>25104</v>
+      </c>
+      <c r="D31" t="n">
+        <v>35335</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>25009</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15816</v>
+      </c>
+      <c r="D32" t="n">
+        <v>27043</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2457</v>
+      </c>
+      <c r="C33" t="n">
+        <v>44019</v>
+      </c>
+      <c r="D33" t="n">
+        <v>23947</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5390</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31412</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17598</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>35338</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4412</v>
+      </c>
+      <c r="D35" t="n">
+        <v>39833</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>38587</v>
+      </c>
+      <c r="C36" t="n">
+        <v>39097</v>
+      </c>
+      <c r="D36" t="n">
+        <v>45388</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3044</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6411</v>
+      </c>
+      <c r="D37" t="n">
+        <v>17708</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>19794</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31121</v>
+      </c>
+      <c r="D38" t="n">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>17610</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12942</v>
+      </c>
+      <c r="D39" t="n">
+        <v>26409</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4298</v>
+      </c>
+      <c r="C40" t="n">
+        <v>29720</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>28259</v>
+      </c>
+      <c r="C41" t="n">
+        <v>34010</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14760</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>16844</v>
+      </c>
+      <c r="C42" t="n">
+        <v>15941</v>
+      </c>
+      <c r="D42" t="n">
+        <v>12457</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>47152</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1369</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20696</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>26922</v>
+      </c>
+      <c r="C44" t="n">
+        <v>23165</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>17032</v>
+      </c>
+      <c r="C45" t="n">
+        <v>28507</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6625</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>43750</v>
+      </c>
+      <c r="C46" t="n">
+        <v>48011</v>
+      </c>
+      <c r="D46" t="n">
+        <v>38399</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>27252</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45210</v>
+      </c>
+      <c r="D47" t="n">
+        <v>12665</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5016</v>
+      </c>
+      <c r="C48" t="n">
+        <v>44751</v>
+      </c>
+      <c r="D48" t="n">
+        <v>31068</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>21189</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12492</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33472</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>17569</v>
+      </c>
+      <c r="C50" t="n">
+        <v>37693</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>29310</v>
+      </c>
+      <c r="C51" t="n">
+        <v>40011</v>
+      </c>
+      <c r="D51" t="n">
+        <v>32982</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>42180</v>
+      </c>
+      <c r="C52" t="n">
+        <v>28174</v>
+      </c>
+      <c r="D52" t="n">
+        <v>32460</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>40288</v>
+      </c>
+      <c r="C53" t="n">
+        <v>30406</v>
+      </c>
+      <c r="D53" t="n">
+        <v>47825</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>20807</v>
+      </c>
+      <c r="C54" t="n">
+        <v>28872</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Item 54</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>40097</v>
+      </c>
+      <c r="C55" t="n">
+        <v>10751</v>
+      </c>
+      <c r="D55" t="n">
+        <v>34462</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Item 55</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>15542</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25848</v>
+      </c>
+      <c r="D56" t="n">
+        <v>16260</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Item 56</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>27614</v>
+      </c>
+      <c r="C57" t="n">
+        <v>21290</v>
+      </c>
+      <c r="D57" t="n">
+        <v>25635</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Item 57</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>39914</v>
+      </c>
+      <c r="C58" t="n">
+        <v>18588</v>
+      </c>
+      <c r="D58" t="n">
+        <v>17014</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Item 58</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>46442</v>
+      </c>
+      <c r="C59" t="n">
+        <v>14008</v>
+      </c>
+      <c r="D59" t="n">
+        <v>12703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
